--- a/media/articulos_filtrados.xlsx
+++ b/media/articulos_filtrados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q259"/>
+  <dimension ref="A1:Q261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>  </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CHIA17  </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">DICO65 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CELI04  </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">ALMA26   </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">SRIS44  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">DICO03 </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">GOLD20 </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">GOLD19 </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">MUEC02 </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CHIA32  </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">SHIV03 </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">SHIV01 </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">SHIV04 </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CRDA03 </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CRDA04 </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CRDA06 </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CRDA02 </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CRDA05 </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -6709,7 +6709,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CRDA01 </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7967,27 +7967,27 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>4.320,00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>6.033,06</t>
+          <t>6.446,28</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>7.300,00</t>
+          <t>7.800,00</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>50,83</t>
+          <t>49,22</t>
         </is>
       </c>
     </row>
@@ -8050,27 +8050,27 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>29/11/2025</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>5.500,00</t>
+          <t>5.950,00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>8.264,46</t>
+          <t>8.925,62</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>10.800,00</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>50,26</t>
+          <t>50,01</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">PAST39  </t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">URFA02 </t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">URFA01 </t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">URFA03 </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">URFA04 </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">BRIS78  </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">BRIS48  </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">PURA02 </t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">PURA05 </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">PURA11 </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -9770,7 +9770,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">PURA48 </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">PURA09 </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">SOND01 </t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -10007,7 +10007,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">AMAN02  </t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -10090,7 +10090,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">TRAT01 </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">TRAT12 </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -12448,27 +12448,27 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>01/12/2025</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>1.250,00</t>
+          <t>1.800,00</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2.314,05</t>
+          <t>2.396,69</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>2.800,00</t>
+          <t>2.900,00</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>85,12</t>
+          <t>33,15</t>
         </is>
       </c>
     </row>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">BAMB02 </t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">DICO32 </t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -15283,7 +15283,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">31EW </t>
+          <t xml:space="preserve">65FX </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -15293,27 +15293,28 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798338250077 </t>
+          <t xml:space="preserve">7798414430010 </t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
+          <t>Queso crema REBELDE</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA CLASICO</t>
+          <t>Queso crema REBELDE</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
+          <t>Queso crema sin conservantes ni azucares agregados. 
+Perfecto para acompañar cualquier tipo de plato.</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Green &amp; CO</t>
+          <t>REBELDE (Panda Organic)</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -15324,12 +15325,12 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15339,34 +15340,34 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>20/08/2025</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>3.550,00</t>
+          <t>3.110,00</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>5.867,77</t>
+          <t>5.067,87</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>7.100,00</t>
+          <t>5.600,00</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>62,95</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">36ES </t>
+          <t xml:space="preserve">52GA </t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -15376,29 +15377,25 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798338250084 </t>
+          <t xml:space="preserve">763571697221 </t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Queso castañas caju QU CRUDDA MIX PIMIENTAS</t>
+          <t>Queso Cremoso 250grs Felices las vacas</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Green &amp; CO</t>
-        </is>
-      </c>
+          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
@@ -15427,17 +15424,17 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>3.550,00</t>
+          <t>1.865,00</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>5.867,77</t>
+          <t>3.082,64</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>7.100,00</t>
+          <t>3.730,00</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
@@ -15449,7 +15446,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">65FX </t>
+          <t xml:space="preserve">85VZ </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -15459,30 +15456,25 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798414430010 </t>
+          <t xml:space="preserve">656750732656 </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Queso crema REBELDE</t>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Queso crema REBELDE</t>
+          <t>Queso Cremoso 500g Felices Las Vacas</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Queso crema sin conservantes ni azucares agregados. 
-Perfecto para acompañar cualquier tipo de plato.</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>REBELDE (Panda Organic)</t>
-        </is>
-      </c>
+          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
@@ -15491,12 +15483,12 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15506,62 +15498,62 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>20/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>3.110,00</t>
+          <t>3.530,00</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>5.067,87</t>
+          <t>5.834,71</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>7.060,00</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>62,95</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">52GA </t>
+          <t xml:space="preserve">13NR </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">QUE3010 </t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">763571697221 </t>
+          <t xml:space="preserve">7798328480118 </t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Queso Cremoso 250grs Felices las vacas</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Queso cremoso, ideal para untar en tostadas o como ingrediente en recetas.</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr"/>
+          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
@@ -15570,12 +15562,12 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Lacteos</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15585,62 +15577,66 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>1.865,00</t>
+          <t>6.430,00</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>3.082,64</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>3.730,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>33,71</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">85VZ </t>
+          <t xml:space="preserve">31EW </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CRUD13  </t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">656750732656 </t>
+          <t xml:space="preserve">7798338250077 </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
+          <t>Queso madurado de caju QU CRUDDA CLASICO</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g Felices Las Vacas</t>
+          <t>Queso madurado de caju QU CRUDDA CLASICO</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Queso cremoso en mayor cantidad, perfecto para quienes disfrutan de un queso suave y untar.</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr"/>
+          <t>Queso vegano a base de castañas de cajú, ideal para untar o como ingrediente en ensaladas.</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
@@ -15669,17 +15665,17 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>3.530,00</t>
+          <t>3.550,00</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>5.834,71</t>
+          <t>5.867,77</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>7.060,00</t>
+          <t>7.100,00</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
@@ -15691,33 +15687,37 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">13NR </t>
+          <t xml:space="preserve">36ES </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">CRUD11  </t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480118 </t>
+          <t xml:space="preserve">7798338250084 </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya</t>
+          <t>Queso madurado de caju QU CRUDDA PIMIENTA</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Queso Cuartirolo 350grs x unidad La Choza ya fraccionado</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr"/>
+          <t>Queso madurado de caju QU CRUDDA PIMIENTA</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Queso vegano de castañas de cajú con especias, perfecto para dar un toque especial a tus platos.</t>
+        </is>
+      </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>La Choza</t>
+          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
@@ -15728,12 +15728,12 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15743,27 +15743,27 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>6.430,00</t>
+          <t>3.550,00</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>8.144,80</t>
+          <t>5.867,77</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>9.000,00</t>
+          <t>7.100,00</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>26,67</t>
+          <t>65,29</t>
         </is>
       </c>
     </row>
@@ -17844,12 +17844,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Tableta chocolate 80% colonial 150g suelto</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Tableta chocolate 70% colonial 150g suelto</t>
+          <t>Tableta chocolate 80% colonial 150g suelto</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -17987,7 +17987,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">30WW </t>
+          <t xml:space="preserve">33XF </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -17997,40 +17997,32 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">002479 </t>
+          <t xml:space="preserve">PLUT0030 </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
+          <t>Tarta de frutos secos NO VEGANA chica</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Te de burro (Burrito) PLUT 50g</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
-        </is>
-      </c>
+          <t>Tarta de frutos secos NO VEGANA chica</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Yuyos Andy</t>
+          <t>Plutarco</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Yuyos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -18043,34 +18035,34 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>05/12/2025</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>1.726,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2.859,50</t>
+          <t>6.198,35</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>3.460,00</t>
+          <t>7.500,00</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>65,67</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">56PV </t>
+          <t xml:space="preserve">84AZ </t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -18080,43 +18072,35 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOFUMEI0001 </t>
+          <t xml:space="preserve">PLUT0031 </t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
+          <t>Tarta de frutos secos NO VEGANA grande</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Tofu ARTESANAL MEI 500g</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
-        </is>
-      </c>
+          <t>Tarta de frutos secos NO VEGANA grande</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Tofu Mei</t>
+          <t>Plutarco</t>
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Veganos</t>
-        </is>
-      </c>
+          <t>Panificados Integrales</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18126,34 +18110,34 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>05/12/2025</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>8.325,79</t>
+          <t>19.008,26</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>9.200,00</t>
+          <t>23.000,00</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>43,55</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">82LS </t>
+          <t xml:space="preserve">30WW </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -18163,43 +18147,43 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798383880014 </t>
+          <t xml:space="preserve">002479 </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Tofu organico Soyana 350 grs</t>
+          <t>Te de burro (Burrito) PLUT 50g</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
+          <t>Hierba de burro, utilizada en infusiones, con propiedades digestivas y un sabor suave.</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Soyana</t>
+          <t>Yuyos Andy</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Veganos</t>
+          <t>Yuyos</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18209,34 +18193,34 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>4.120,00</t>
+          <t>1.726,00</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>6.787,33</t>
+          <t>2.859,50</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>7.500,00</t>
+          <t>3.460,00</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>64,74</t>
+          <t>65,67</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">89LL </t>
+          <t xml:space="preserve">56PV </t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -18246,43 +18230,43 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">7788465825354 </t>
+          <t xml:space="preserve">TOFUMEI0001 </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Tomate triturado SAPIENZA 1Lt</t>
+          <t>Tofu ARTESANAL MEI 500g</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
+          <t>Tofu artesanal, una excelente fuente de proteínas vegetales, ideal para salteados y ensaladas.</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Tofu Mei</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Conservas</t>
+          <t>Veganos</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18292,34 +18276,34 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>03/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2.925,00</t>
+          <t>5.800,00</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>4.380,17</t>
+          <t>8.325,79</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>5.300,00</t>
+          <t>9.200,00</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>49,75</t>
+          <t>43,55</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">10PH </t>
+          <t xml:space="preserve">82LS </t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -18329,39 +18313,43 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve">0025881 </t>
+          <t xml:space="preserve">7798383880014 </t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Tomates deshidratados Plutarco x100g</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Tomates deshidratados Plutarco x100g</t>
+          <t>Tofu organico Soyana 350 grs</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Tomates deshidratados, secos al sol</t>
+          <t>Tofu orgánico, rico en proteínas, ideal para preparar platos vegetarianos y veganos.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Los Nogales</t>
+          <t>Soyana</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Productos Sueltos</t>
-        </is>
-      </c>
-      <c r="J224" t="inlineStr"/>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Veganos</t>
+        </is>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18371,312 +18359,320 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>528,00</t>
+          <t>4.120,00</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>872,73</t>
+          <t>6.787,33</t>
         </is>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>1.056,00</t>
+          <t>7.500,00</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>64,74</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
+          <t xml:space="preserve">89LL </t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7788465825354 </t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Tomate triturado SAPIENZA 1Lt</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Tomate 100%  triturado natural, ideal para salsas y guisos, con un sabor fresco y natural.</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Aceites y Conservas</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Conservas</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>03/09/2025</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>2.925,00</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>4.380,17</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>5.300,00</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>49,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10PH </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0025881 </t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados Plutarco x100g</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados Plutarco x100g</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Tomates deshidratados, secos al sol</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Productos Sueltos</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>528,00</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>872,73</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>1.056,00</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
           <t xml:space="preserve">88OL </t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t xml:space="preserve">0720665957210 </t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>TOQUES GARBANZOS CASA VEGANA x420g</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>Toques de Garbanzos marca CASA VEGANA
 Veganos y Muy Nutritivos.</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr">
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
         <is>
           <t>Congelados</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr">
+      <c r="J227" t="inlineStr">
         <is>
           <t>Veganos</t>
         </is>
       </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M225" t="inlineStr">
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
         <is>
           <t>15/08/2025</t>
         </is>
       </c>
-      <c r="N225" t="inlineStr">
+      <c r="N227" t="inlineStr">
         <is>
           <t>3.200,00</t>
         </is>
       </c>
-      <c r="O225" t="inlineStr">
+      <c r="O227" t="inlineStr">
         <is>
           <t>4.876,03</t>
         </is>
       </c>
-      <c r="P225" t="inlineStr">
+      <c r="P227" t="inlineStr">
         <is>
           <t>5.900,00</t>
         </is>
       </c>
-      <c r="Q225" t="inlineStr">
+      <c r="Q227" t="inlineStr">
         <is>
           <t>52,38</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t xml:space="preserve">60JI </t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t xml:space="preserve">PLUT0016 </t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>Torta Galesa Plutarco</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>Torta galesa super humeda, sabrosa y contundente
 Elaborada a base de harina 100% integral, cacao, mix de especias y nueces.
 PRODUCTO VEGANO</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>Plutarco</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>Panificados Integrales</t>
-        </is>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>17/09/2025</t>
-        </is>
-      </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>6.333,33</t>
-        </is>
-      </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>8.597,29</t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>9.500,00</t>
-        </is>
-      </c>
-      <c r="Q226" t="inlineStr">
-        <is>
-          <t>35,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88SH </t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0PUROM </t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Tortillas PURO MAIZ (GRANDES)</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>Puro Maiz</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>Refrigerados</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>10,50</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>29/08/2025</t>
-        </is>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>5.400,00</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>7.239,82</t>
-        </is>
-      </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>8.000,00</t>
-        </is>
-      </c>
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>34,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">60SC </t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798131061467 </t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>Green &amp; CO</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Panificados Integrales</t>
         </is>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18686,34 +18682,34 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>17/09/2025</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>4.110,00</t>
+          <t>6.333,33</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>6.611,57</t>
+          <t>8.597,29</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>8.000,00</t>
+          <t>9.500,00</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>60,87</t>
+          <t>35,75</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">92LN </t>
+          <t xml:space="preserve">88SH </t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -18723,35 +18719,39 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">458448 </t>
+          <t xml:space="preserve">0PUROM </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
+          <t>Tortillas PURO MAIZ (GRANDES)</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr"/>
+          <t>Tortillas de maíz grandes, perfectas para hacer tacos, burritos o wraps, con un sabor auténtico.</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Puro Maiz</t>
+        </is>
+      </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Aceites y Conservas</t>
+          <t>Refrigerados</t>
         </is>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -18761,62 +18761,62 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>29/08/2025</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>6.900,00</t>
+          <t>5.400,00</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>9.504,13</t>
+          <t>7.239,82</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>11.500,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>34,07</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">99II </t>
+          <t xml:space="preserve">60SC </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">PAMP12 </t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve">236262 </t>
+          <t xml:space="preserve">7798131061467 </t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr"/>
+          <t>Vinagre de Manzana 250ml PAMPA GOURMET</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Green &amp; CO</t>
+        </is>
+      </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
@@ -18836,34 +18836,34 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>15/09/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>7.900,00</t>
+          <t>4.110,00</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>11.487,60</t>
+          <t>6.611,57</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>13.900,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>45,41</t>
+          <t>60,87</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">62BS </t>
+          <t xml:space="preserve">92LN </t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -18873,22 +18873,22 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">9465832156492 </t>
+          <t xml:space="preserve">458448 </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
+          <t>Vinagre de Sidra de Manzana 250ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+          <t>Vinagre de sidra de manzana, ideal para aderezos y marinados, con propiedades digestivas.</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
@@ -18911,34 +18911,34 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>4.200,00</t>
+          <t>6.900,00</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>6.347,11</t>
+          <t>9.504,13</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>7.680,00</t>
+          <t>11.500,00</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>51,12</t>
+          <t>37,74</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">38OL </t>
+          <t xml:space="preserve">99II </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -18948,29 +18948,25 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">946583215647 </t>
+          <t xml:space="preserve">236262 </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
+          <t>Vinagre de Sidra de Manzana 500ml BIORE / BIO NATURE</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>Oh Yeah It's Vegan!</t>
-        </is>
-      </c>
+          <t>Vinagre de sidra de manzana en mayor cantidad, ideal para aderezos, marinados y como tónico natural.</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
@@ -18990,7 +18986,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>15/09/2025</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -19000,24 +18996,24 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>11.528,93</t>
+          <t>11.487,60</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>13.950,00</t>
+          <t>13.900,00</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>45,94</t>
+          <t>45,41</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">98CK </t>
+          <t xml:space="preserve">62BS </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -19027,33 +19023,29 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680149 </t>
+          <t xml:space="preserve">9465832156492 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin Malbec Roble</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin Malbec Roble</t>
+          <t>Vinagre Oh Yeah It´s Vegan 250ml</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Color rojo ciruela con reflejos violáceos, en nariz se perciben el cassis, ciruela madura, vainilla. </t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>Hecho en Argentina</t>
-        </is>
-      </c>
+          <t>Vinagre vegano, ideal para aderezar ensaladas y dar un toque ácido a tus platos.</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J233" t="inlineStr"/>
@@ -19069,34 +19061,34 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>5.790,00</t>
+          <t>4.200,00</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>8.677,69</t>
+          <t>6.347,11</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>10.500,00</t>
+          <t>7.680,00</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>49,87</t>
+          <t>51,12</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">78DC </t>
+          <t xml:space="preserve">38OL </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -19106,33 +19098,33 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680194 </t>
+          <t xml:space="preserve">946583215647 </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin syrah 750ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Vino organico familia cecchin syrah 750ml</t>
+          <t>Vinagre Oh Yeah It´s Vegan 500ml</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oscuro color rojo sangre, su sabor se asocia a especias y su aroma a higos y frutas secas. </t>
+          <t>Vinagre vegano en mayor cantidad, perfecto para quienes buscan un aderezo saludable y natural.</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Hecho en Argentina</t>
+          <t>Oh Yeah It's Vegan!</t>
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Aceites y Conservas</t>
         </is>
       </c>
       <c r="J234" t="inlineStr"/>
@@ -19148,34 +19140,34 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>22/09/2025</t>
+          <t>14/08/2025</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>5.790,00</t>
+          <t>7.900,00</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>8.677,69</t>
+          <t>11.528,93</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>10.500,00</t>
+          <t>13.950,00</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>49,87</t>
+          <t>45,94</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">41HO </t>
+          <t xml:space="preserve">98CK </t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -19185,22 +19177,22 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798131680378 </t>
+          <t xml:space="preserve">7798131680149 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Vino picum malbec 750ml</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Vino picum malbec 750ml</t>
+          <t>Vino organico familia cecchin Malbec Roble</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>100% Vino orgánico Malbec. Es un vino rojo, granada. Intenso. Aroma a fresa y cereza. En boca taninos suaves y ductiles, final prolongado.</t>
+          <t xml:space="preserve">Color rojo ciruela con reflejos violáceos, en nariz se perciben el cassis, ciruela madura, vainilla. </t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -19227,34 +19219,34 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>4.660,00</t>
+          <t>5.790,00</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>6.859,50</t>
+          <t>8.677,69</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>8.300,00</t>
+          <t>10.500,00</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>47,20</t>
+          <t>49,87</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">48OU </t>
+          <t xml:space="preserve">78DC </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -19264,40 +19256,36 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve">090125151497 </t>
+          <t xml:space="preserve">7798131680194 </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Yerba Ajedrez 500 gr</t>
+          <t>Vino organico familia cecchin syrah 750ml</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
+          <t xml:space="preserve">Oscuro color rojo sangre, su sabor se asocia a especias y su aroma a higos y frutas secas. </t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+          <t>Hecho en Argentina</t>
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -19310,34 +19298,34 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>22/09/2025</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>2.720,00</t>
+          <t>5.790,00</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>3.595,04</t>
+          <t>8.677,69</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>4.350,00</t>
+          <t>10.500,00</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>32,17</t>
+          <t>49,87</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">91YZ </t>
+          <t xml:space="preserve">41HO </t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -19347,40 +19335,36 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798199890016 </t>
+          <t xml:space="preserve">7798131680378 </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Vino picum malbec 750ml</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Yerba Arapegua con palo 500g</t>
+          <t>Vino picum malbec 750ml</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+          <t>100% Vino orgánico Malbec. Es un vino rojo, granada. Intenso. Aroma a fresa y cereza. En boca taninos suaves y ductiles, final prolongado.</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Ino (Maelca)</t>
+          <t>Hecho en Argentina</t>
         </is>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
+          <t>Bebidas</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>21,00</t>
@@ -19393,57 +19377,223 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>4.840,00</t>
+          <t>4.660,00</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>7.231,40</t>
+          <t>6.859,50</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>8.750,00</t>
+          <t>8.300,00</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>49,41</t>
+          <t>47,20</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
+          <t xml:space="preserve">48OU </t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">090125151497 </t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Yerba Ajedrez 500 gr</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Yerba Ajedrez 500 gr</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Yerba mate Ajedrez, ideal para preparar un buen mate, con un sabor equilibrado y aromático.</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>YERBAS CAMPESINAS -Cooperativa Rio Paraná Titrayju</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>2.720,00</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>3.595,04</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>4.350,00</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>32,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91YZ </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798199890016 </t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Yerba Arapegua con palo 500g</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Yerba mate Arapegua, con palo, ideal para quienes disfrutan de un sabor más suave y tradicional.</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Ino (Maelca)</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>27/08/2025</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>4.840,00</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>7.231,40</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>8.750,00</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>49,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
           <t xml:space="preserve">66FP </t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t xml:space="preserve">7798151510044 </t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>Yerba Grapia Milenaria 500grs</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>Producida por pequeños agricultores que
 trabajan sin agrotóxicos y con respeto
@@ -19453,169 +19603,7 @@
 y es perfecta para compartir en cualquier momento.</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>30/10/2025</t>
-        </is>
-      </c>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>2.800,00</t>
-        </is>
-      </c>
-      <c r="O238" t="inlineStr">
-        <is>
-          <t>3.719,01</t>
-        </is>
-      </c>
-      <c r="P238" t="inlineStr">
-        <is>
-          <t>4.500,00</t>
-        </is>
-      </c>
-      <c r="Q238" t="inlineStr">
-        <is>
-          <t>32,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15CP </t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200294 </t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>YERBA Jesper con hierbas serranas 500 gr</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>2.650,00</t>
-        </is>
-      </c>
-      <c r="O239" t="inlineStr">
-        <is>
-          <t>3.719,01</t>
-        </is>
-      </c>
-      <c r="P239" t="inlineStr">
-        <is>
-          <t>4.500,00</t>
-        </is>
-      </c>
-      <c r="Q239" t="inlineStr">
-        <is>
-          <t>40,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t xml:space="preserve">47GQ </t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200478 </t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>YERBA Jesper organica con palo 500 gr</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+      <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
@@ -19639,12 +19627,12 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2.650,00</t>
+          <t>2.800,00</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -19659,14 +19647,14 @@
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>40,34</t>
+          <t>32,82</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">74BI </t>
+          <t xml:space="preserve">15CP </t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -19676,22 +19664,22 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798185200287 </t>
+          <t xml:space="preserve">7798185200294 </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>YERBA Jesper tradicional 500 gr roja</t>
+          <t>YERBA Jesper con hierbas serranas 500 gr</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
+          <t>La combinación de la Yerba Mate con Menta, Peperina y Poleo combinan poderosas propiedades de hierbas naturales que favorecen la salud del organismo.</t>
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
@@ -19745,7 +19733,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">98TJ </t>
+          <t xml:space="preserve">47GQ </t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -19755,22 +19743,22 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000224 </t>
+          <t xml:space="preserve">7798185200478 </t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>yerba Kalena con palo 500 gr</t>
+          <t>YERBA Jesper organica con palo 500 gr</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
+          <t>Yerba mate orgánica Jesper, con palo, perfecta para preparar un mate saludable y sabroso.</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -19801,34 +19789,34 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>3.210,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>28,73</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve">69ET </t>
+          <t xml:space="preserve">74BI </t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -19838,29 +19826,25 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve">7791312000392 </t>
+          <t xml:space="preserve">7798185200287 </t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>yerba Kalena DESPALADA 500 gr</t>
+          <t>YERBA Jesper tradicional 500 gr roja</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>Los Nogales</t>
-        </is>
-      </c>
+          <t>Producto elaborado con palo y resultado de un cuidadoso proceso de estacionamiento natural que permite que sus hojas desarrollen un sabor más equilibrado, sin amargor excesivo.</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
@@ -19884,34 +19868,34 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>3.850,00</t>
+          <t>2.650,00</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>4.958,68</t>
+          <t>3.719,01</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>4.500,00</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>28,80</t>
+          <t>40,34</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">67GY </t>
+          <t xml:space="preserve">98TJ </t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -19921,25 +19905,29 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve">076625246352 </t>
+          <t xml:space="preserve">7791312000224 </t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Yerba La Buena 1kg</t>
+          <t>yerba Kalena con palo 500 gr</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr"/>
+          <t>Yerba mate Kalena, con palo, ideal para quienes buscan un sabor auténtico y tradicional.</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
@@ -19963,34 +19951,34 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>5.700,00</t>
+          <t>3.210,00</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>7.355,37</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>8.900,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>29,04</t>
+          <t>28,73</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">19PM </t>
+          <t xml:space="preserve">69ET </t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -20000,25 +19988,29 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve">754697526977 </t>
+          <t xml:space="preserve">7791312000392 </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Yerba La Buena 500 gr</t>
+          <t>yerba Kalena DESPALADA 500 gr</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr"/>
+          <t>Yerba mate Kalena despalada, con un sabor más intenso, ideal para los amantes del mate fuerte.</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Los Nogales</t>
+        </is>
+      </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
@@ -20042,34 +20034,34 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>22/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>3.850,00</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>4.958,68</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>28,80</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">24OB </t>
+          <t xml:space="preserve">67GY </t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -20079,23 +20071,22 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798019800010 </t>
+          <t xml:space="preserve">076625246352 </t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Yerba mate 500g LAS TUNAS</t>
+          <t>Yerba La Buena 1kg</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
-Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
@@ -20122,57 +20113,216 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>13/08/2025</t>
+          <t>22/08/2025</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>2.050,00</t>
+          <t>5.700,00</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>3.388,43</t>
+          <t>7.355,37</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>4.100,00</t>
+          <t>8.900,00</t>
         </is>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>65,29</t>
+          <t>29,04</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
+          <t xml:space="preserve">19PM </t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">754697526977 </t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Yerba La Buena 500 gr</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Yerba La Buena 500 gr</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Elaborada en Misiones. Conserva el aroma y las propiedades de origen, generando en cada mateada una buena compañía. Con un sabor que solo YERBA MATE LA BUENA PUEDE LOGRAR. Agroecologica.</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>4.132,23</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>37,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24OB </t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7798019800010 </t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Yerba mate 500g LAS TUNAS</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Elaborada con palo, estacionamiento natural, sin componentes químicos.  Apta Celíacos.
+Producida por La cooperativa Las Tunas, ubicada en Misiones,  recibe anualmente 1 millón 500 mil kilos de hoja verde de sus socios y elabora entre 20 y 25 mil kilos de yerba mate que son comercializados en distintos lugares de la Argentina bajo la modalidad de venta directa, esto es: del productor al consumidor</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Infusiones</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>2.050,00</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>3.388,43</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>4.100,00</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>65,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
           <t xml:space="preserve">87DC </t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t xml:space="preserve">7798146780018 </t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="D249" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>Yerba Mate Legado 500g</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t xml:space="preserve">Es un producto orgánico, sin aditivos químicos y cultivado en yerbales orgánicos, lleva el sello de certificación OIA de la empresa certificadora "Organización Internacional Agropecuaria" de Buenos Aires.
 Se extraen principalmente hojas maduras con ramas que luego se seleccionan enviando al “secadero” las de pequeño diámetro y descartando las de mayor grosor. Este proceso se denomina “quiebra” 
@@ -20180,168 +20330,6 @@
 </t>
         </is>
       </c>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>2.300,00</t>
-        </is>
-      </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>3.057,85</t>
-        </is>
-      </c>
-      <c r="P247" t="inlineStr">
-        <is>
-          <t>3.700,00</t>
-        </is>
-      </c>
-      <c r="Q247" t="inlineStr">
-        <is>
-          <t>32,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t xml:space="preserve">78TZ </t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798185200041 </t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Yerba Roapipo suave 500g</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>Eco Tierra</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>Infusiones</t>
-        </is>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>Yerba Mate</t>
-        </is>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>ARS</t>
-        </is>
-      </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>13/09/2025</t>
-        </is>
-      </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>2.710,00</t>
-        </is>
-      </c>
-      <c r="O248" t="inlineStr">
-        <is>
-          <t>4.132,23</t>
-        </is>
-      </c>
-      <c r="P248" t="inlineStr">
-        <is>
-          <t>5.000,00</t>
-        </is>
-      </c>
-      <c r="Q248" t="inlineStr">
-        <is>
-          <t>52,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58DG </t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7798140140023 </t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Yerba TITRAYJU 500g</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Yerba TITRAYJU 500g</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
-        </is>
-      </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
@@ -20366,34 +20354,34 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>3.900,00</t>
+          <t>2.300,00</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>3.057,85</t>
         </is>
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>3.700,00</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>31,38</t>
+          <t>32,95</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">51OP </t>
+          <t xml:space="preserve">78TZ </t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -20403,25 +20391,29 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve">7795568960271 </t>
+          <t xml:space="preserve">7798185200041 </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Yerba Tucangua 500grs</t>
+          <t>Yerba Roapipo suave 500g</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr"/>
+          <t>Yerba mate Roapipo, suave y aromática, perfecta para quienes buscan un mate ligero.</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Eco Tierra</t>
+        </is>
+      </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
@@ -20445,12 +20437,12 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>3.050,00</t>
+          <t>2.710,00</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -20465,14 +20457,14 @@
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>35,48</t>
+          <t>52,48</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">15ZF </t>
+          <t xml:space="preserve">58DG </t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -20482,43 +20474,39 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480309 </t>
+          <t xml:space="preserve">7798140140023 </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yerba TITRAYJU 500g</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Yerba mate Titrayju, con un sabor fuerte y característico, ideal para los amantes del mate intenso.</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20528,34 +20516,34 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>4.150,00</t>
+          <t>3.900,00</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>5.248,87</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>26,48</t>
+          <t>31,38</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">20YC </t>
+          <t xml:space="preserve">51OP </t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -20565,43 +20553,39 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480071 </t>
+          <t xml:space="preserve">7795568960271 </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
+          <t>Yerba Tucangua 500grs</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>La Choza</t>
-        </is>
-      </c>
+          <t>Esta yerba tiene un perfil de sabor suave y sin notas amargas, a diferencia de otras yerbas. Se seca de manera natural y se añeja, y es 100% orgánica</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Refrigerados</t>
+          <t>Infusiones</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Lacteos</t>
+          <t>Yerba Mate</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>10,50</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20611,59 +20595,59 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>27/08/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>6.640,00</t>
+          <t>3.050,00</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>8.416,29</t>
+          <t>4.132,23</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>26,75</t>
+          <t>35,48</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">47BB </t>
+          <t xml:space="preserve">15ZF </t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">QUE1027 </t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480361 </t>
+          <t xml:space="preserve">7798328480309 </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (N</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible F, bosque 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
+          <t>Yogurth bebible de sabor bosque, cremoso y nutritivo, ideal para un snack saludable.</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -20699,54 +20683,54 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>4.150,00</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>5.067,87</t>
+          <t>5.520,36</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>6.100,00</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>26,70</t>
+          <t>33,02</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">63AA </t>
+          <t xml:space="preserve">20YC </t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">QUE2002 </t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve">7798328480057 </t>
+          <t xml:space="preserve">7798328480071 </t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO in</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
+          <t>Yogurth bebible frutilla 1LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+          <t>Yogurth bebible de frutilla, delicioso y refrescante, perfecto para disfrutar en cualquier momento.</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -20782,57 +20766,61 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>6.790,00</t>
+          <t>6.640,00</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>8.597,29</t>
+          <t>8.959,28</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>9.500,00</t>
+          <t>9.900,00</t>
         </is>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>26,62</t>
+          <t>34,93</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">85ST </t>
+          <t xml:space="preserve">47BB </t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">QUE1030 </t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve">325225 </t>
+          <t xml:space="preserve">7798328480361 </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Yogurth griego 170g KAY</t>
+          <t>Yogurth bebible frutilla 500cm3 La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr"/>
+          <t>Yogurth bebible de frutilla en menor cantidad, ideal para un snack rápido y sabroso.</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
@@ -20846,7 +20834,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20856,62 +20844,66 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>18/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>3.390,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>5.123,97</t>
+          <t>5.339,37</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>5.900,00</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>51,15</t>
+          <t>33,48</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">12DU </t>
+          <t xml:space="preserve">63AA </t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve">QUE2024 </t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve">125151421 </t>
+          <t xml:space="preserve">7798328480057 </t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Yogurth griego 400g KAY</t>
+          <t>Yogurth bebible frutos rojos 1 LT La Choza (NO incluye el envase)</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
-        </is>
-      </c>
-      <c r="G256" t="inlineStr"/>
+          <t>Yogurth bebible de frutos rojos, rico en sabor y nutrientes, ideal para un desayuno o merienda.</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>La Choza</t>
+        </is>
+      </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
@@ -20925,7 +20917,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>10,50</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20935,34 +20927,34 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>18/08/2025</t>
+          <t>27/08/2025</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>7.270,00</t>
+          <t>6.790,00</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>11.157,02</t>
+          <t>9.140,27</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>13.500,00</t>
+          <t>10.100,00</t>
         </is>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>53,47</t>
+          <t>34,61</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t xml:space="preserve">73AZ </t>
+          <t xml:space="preserve">85ST </t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -20972,22 +20964,22 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve">4123241 </t>
+          <t xml:space="preserve">325225 </t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 200g</t>
+          <t>Yogurth griego 170g KAY</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+          <t>Yogurth griego, cremoso y rico en proteínas, ideal para disfrutar solo o con frutas.</t>
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
@@ -21014,34 +21006,34 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>3.000,00</t>
+          <t>3.390,00</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>4.132,23</t>
+          <t>5.123,97</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>6.200,00</t>
         </is>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>37,74</t>
+          <t>51,15</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t xml:space="preserve">85LG </t>
+          <t xml:space="preserve">12DU </t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -21051,29 +21043,25 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve">42355322 </t>
+          <t xml:space="preserve">125151421 </t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 370g</t>
+          <t>Yogurth griego 400g KAY</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>Camila GHURTH yogurth griego</t>
-        </is>
-      </c>
+          <t>Yogurth griego, perfecto para quienes buscan un snack saludable y nutritivo.</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
@@ -21097,34 +21085,34 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>18/08/2025</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>5.600,00</t>
+          <t>7.270,00</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>7.685,95</t>
+          <t>11.157,02</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>9.300,00</t>
+          <t>13.500,00</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>37,25</t>
+          <t>53,47</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve">49HA </t>
+          <t xml:space="preserve">73AZ </t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -21134,17 +21122,17 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve">21712414 </t>
+          <t xml:space="preserve">4123241 </t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Yogurth griego natural ghurt 750g</t>
+          <t>Yogurth griego natural ghurt 200g</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -21181,20 +21169,182 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>4.132,23</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>37,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85LG </t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42355322 </t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 370g</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 370g</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Camila GHURTH yogurth griego</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>5.600,00</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>7.685,95</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>9.300,00</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>37,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49HA </t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21712414 </t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Yogurth griego natural ghurt 750g</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Yogurth Griego de Primera calidad con simples ingredientes y una textura muy cremosa. Alto en Proteinas.</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Refrigerados</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Lacteos</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>21,00</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
           <t>10.800,00</t>
         </is>
       </c>
-      <c r="O259" t="inlineStr">
+      <c r="O261" t="inlineStr">
         <is>
           <t>14.462,81</t>
         </is>
       </c>
-      <c r="P259" t="inlineStr">
+      <c r="P261" t="inlineStr">
         <is>
           <t>17.500,00</t>
         </is>
       </c>
-      <c r="Q259" t="inlineStr">
+      <c r="Q261" t="inlineStr">
         <is>
           <t>33,91</t>
         </is>

--- a/media/articulos_filtrados.xlsx
+++ b/media/articulos_filtrados.xlsx
@@ -745,12 +745,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>13.140,50</t>
+          <t>14.380,17</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>15.900,00</t>
+          <t>17.400,00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>13.140,50</t>
+          <t>14.380,17</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>15.900,00</t>
+          <t>17.400,00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>17.520,66</t>
+          <t>19.173,55</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>21.200,00</t>
+          <t>23.200,00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1.200,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>73,45</t>
+          <t>66,52</t>
         </is>
       </c>
     </row>
@@ -6428,12 +6428,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1.200,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>73,45</t>
+          <t>66,52</t>
         </is>
       </c>
     </row>
@@ -6594,12 +6594,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1.200,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>73,45</t>
+          <t>66,52</t>
         </is>
       </c>
     </row>
@@ -6677,12 +6677,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1.200,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>73,45</t>
+          <t>66,52</t>
         </is>
       </c>
     </row>
@@ -6760,12 +6760,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>17/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>1.200,00</t>
+          <t>1.250,00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>58,40</t>
+          <t>52,07</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>La vaca Yogui -</t>
+          <t>La vaca Yogui GHEE</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>La vaca Yogui -</t>
+          <t>La vaca Yogui GHEE</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -8455,27 +8455,27 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>3.500,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>5.619,83</t>
+          <t>5.983,47</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>7.240,00</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>60,57</t>
+          <t>49,59</t>
         </is>
       </c>
     </row>
@@ -8538,27 +8538,27 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>3.500,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>5.619,83</t>
+          <t>5.983,47</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>7.240,00</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>60,57</t>
+          <t>49,59</t>
         </is>
       </c>
     </row>
@@ -8621,27 +8621,27 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>3.500,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>5.619,83</t>
+          <t>5.983,47</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>7.240,00</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>60,57</t>
+          <t>49,59</t>
         </is>
       </c>
     </row>
@@ -8704,27 +8704,27 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/09/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>3.500,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>5.619,83</t>
+          <t>5.983,47</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>7.240,00</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>60,57</t>
+          <t>49,59</t>
         </is>
       </c>
     </row>
@@ -8944,27 +8944,27 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>20/08/2025</t>
+          <t>09/12/2025</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2.295,00</t>
+          <t>2.630,00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>3.429,75</t>
+          <t>3.925,62</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>4.150,00</t>
+          <t>4.750,00</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>49,44</t>
+          <t>49,26</t>
         </is>
       </c>
     </row>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
+          <t>SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
+          <t>SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
@@ -12066,27 +12066,27 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>6.200,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>7.933,88</t>
+          <t>9.256,20</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>9.600,00</t>
+          <t>11.200,00</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>27,97</t>
+          <t>32,23</t>
         </is>
       </c>
     </row>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
+          <t>SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
+          <t>SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>SUMA QAMAÑA - Francisco Rios - maca</t>
+          <t>SUMA QAMAÑA</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>yin yang (dietetica cientifica)</t>
+          <t>YIN YANG</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -17023,27 +17023,27 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>6.800,00</t>
+          <t>7.300,00</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>9.008,26</t>
+          <t>9.628,10</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>10.900,00</t>
+          <t>11.650,00</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>32,47</t>
+          <t>31,89</t>
         </is>
       </c>
     </row>
@@ -18276,27 +18276,27 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>14/08/2025</t>
+          <t>11/12/2025</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>5.800,00</t>
+          <t>6.300,00</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>8.325,79</t>
+          <t>9.049,77</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>9.200,00</t>
+          <t>10.000,00</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>43,55</t>
+          <t>43,65</t>
         </is>
       </c>
     </row>
@@ -18692,17 +18692,17 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>8.597,29</t>
+          <t>10.859,73</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>9.500,00</t>
+          <t>12.000,00</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>71,47</t>
         </is>
       </c>
     </row>
